--- a/cbrunner/Parameters/Forest_Operation_Costs_BC.xlsx
+++ b/cbrunner/Parameters/Forest_Operation_Costs_BC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BEFF59-A520-44A1-8693-E73E8BAC10EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42692DFF-F693-4D0A-86F5-E72242FC4734}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,6 +36,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hember, Robert FLNR:EX</author>
+    <author>tc={C6B63097-FBBA-40BC-9CC0-4A8B950E9AFE}</author>
   </authors>
   <commentList>
     <comment ref="M1" authorId="0" shapeId="0" xr:uid="{C4FDDA75-0B22-4B09-A120-7A101673630D}">
@@ -159,6 +160,14 @@
         </r>
       </text>
     </comment>
+    <comment ref="S1" authorId="1" shapeId="0" xr:uid="{C6B63097-FBBA-40BC-9CC0-4A8B950E9AFE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    0.12 $CDN/m3 (Brian Watson)</t>
+      </text>
+    </comment>
     <comment ref="T1" authorId="0" shapeId="0" xr:uid="{5E4ECDA3-7EA7-4D5A-9D72-C9E9D36F991A}">
       <text>
         <r>
@@ -278,9 +287,6 @@
     <t>Cost Knockdown (CDN$/ha)</t>
   </si>
   <si>
-    <t>Cost Slashpile Burn (CDN$/ha)</t>
-  </si>
-  <si>
     <t>Cost BTK Spray (CDN$/ha)</t>
   </si>
   <si>
@@ -294,6 +300,9 @@
   </si>
   <si>
     <t>Cost Residual Haul and Grind (CDN$/m3)</t>
+  </si>
+  <si>
+    <t>Cost Slashpile Burn (CDN$/m3)</t>
   </si>
 </sst>
 </file>
@@ -442,6 +451,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Hember, Robert FLNR:EX" id="{DB776602-1E4F-4080-86B1-444728C64D35}" userId="S::Robert.Hember@gov.bc.ca::3f5a78e3-6945-4bc7-b9d0-7ea35f94c8e7" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -763,15 +778,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="S1" dT="2021-09-02T16:27:23.29" personId="{DB776602-1E4F-4080-86B1-444728C64D35}" id="{C6B63097-FBBA-40BC-9CC0-4A8B950E9AFE}">
+    <text>0.12 $CDN/m3 (Brian Watson)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U253"/>
+  <dimension ref="A1:W253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P239" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U1" sqref="U1"/>
+      <selection pane="bottomRight" activeCell="U246" sqref="U246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,7 +816,7 @@
     <col min="21" max="21" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -831,16 +854,16 @@
         <v>3</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>18</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>19</v>
@@ -849,16 +872,16 @@
         <v>20</v>
       </c>
       <c r="S1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="15" t="s">
-        <v>22</v>
-      </c>
       <c r="U1" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1901</v>
       </c>
@@ -924,7 +947,7 @@
         <v>500</v>
       </c>
       <c r="S2" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T2" s="1">
         <v>45</v>
@@ -933,7 +956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A34" si="1">A2+1</f>
         <v>1902</v>
@@ -1000,7 +1023,7 @@
         <v>500</v>
       </c>
       <c r="S3" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="1">
         <v>45</v>
@@ -1008,8 +1031,9 @@
       <c r="U3" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" si="1"/>
         <v>1903</v>
@@ -1076,7 +1100,7 @@
         <v>500</v>
       </c>
       <c r="S4" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T4" s="1">
         <v>45</v>
@@ -1084,8 +1108,9 @@
       <c r="U4" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
         <v>1904</v>
@@ -1152,7 +1177,7 @@
         <v>500</v>
       </c>
       <c r="S5" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T5" s="1">
         <v>45</v>
@@ -1160,8 +1185,9 @@
       <c r="U5" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
         <v>1905</v>
@@ -1228,7 +1254,7 @@
         <v>500</v>
       </c>
       <c r="S6" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T6" s="1">
         <v>45</v>
@@ -1236,8 +1262,9 @@
       <c r="U6" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>1906</v>
@@ -1304,7 +1331,7 @@
         <v>500</v>
       </c>
       <c r="S7" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T7" s="1">
         <v>45</v>
@@ -1313,7 +1340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
         <v>1907</v>
@@ -1380,7 +1407,7 @@
         <v>500</v>
       </c>
       <c r="S8" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T8" s="1">
         <v>45</v>
@@ -1389,7 +1416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
         <v>1908</v>
@@ -1456,7 +1483,7 @@
         <v>500</v>
       </c>
       <c r="S9" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T9" s="1">
         <v>45</v>
@@ -1465,7 +1492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
         <v>1909</v>
@@ -1532,7 +1559,7 @@
         <v>500</v>
       </c>
       <c r="S10" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T10" s="1">
         <v>45</v>
@@ -1541,7 +1568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>1910</v>
@@ -1608,7 +1635,7 @@
         <v>500</v>
       </c>
       <c r="S11" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T11" s="1">
         <v>45</v>
@@ -1617,7 +1644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>1911</v>
@@ -1684,7 +1711,7 @@
         <v>500</v>
       </c>
       <c r="S12" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T12" s="1">
         <v>45</v>
@@ -1693,7 +1720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>1912</v>
@@ -1760,7 +1787,7 @@
         <v>500</v>
       </c>
       <c r="S13" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T13" s="1">
         <v>45</v>
@@ -1769,7 +1796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
         <v>1913</v>
@@ -1836,7 +1863,7 @@
         <v>500</v>
       </c>
       <c r="S14" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T14" s="1">
         <v>45</v>
@@ -1845,7 +1872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>1914</v>
@@ -1912,7 +1939,7 @@
         <v>500</v>
       </c>
       <c r="S15" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T15" s="1">
         <v>45</v>
@@ -1921,7 +1948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>1915</v>
@@ -1988,7 +2015,7 @@
         <v>500</v>
       </c>
       <c r="S16" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T16" s="1">
         <v>45</v>
@@ -2064,7 +2091,7 @@
         <v>500</v>
       </c>
       <c r="S17" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T17" s="1">
         <v>45</v>
@@ -2140,7 +2167,7 @@
         <v>500</v>
       </c>
       <c r="S18" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T18" s="1">
         <v>45</v>
@@ -2216,7 +2243,7 @@
         <v>500</v>
       </c>
       <c r="S19" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T19" s="1">
         <v>45</v>
@@ -2292,7 +2319,7 @@
         <v>500</v>
       </c>
       <c r="S20" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T20" s="1">
         <v>45</v>
@@ -2368,7 +2395,7 @@
         <v>500</v>
       </c>
       <c r="S21" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T21" s="1">
         <v>45</v>
@@ -2444,7 +2471,7 @@
         <v>500</v>
       </c>
       <c r="S22" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T22" s="1">
         <v>45</v>
@@ -2520,7 +2547,7 @@
         <v>500</v>
       </c>
       <c r="S23" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T23" s="1">
         <v>45</v>
@@ -2596,7 +2623,7 @@
         <v>500</v>
       </c>
       <c r="S24" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T24" s="1">
         <v>45</v>
@@ -2672,7 +2699,7 @@
         <v>500</v>
       </c>
       <c r="S25" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T25" s="1">
         <v>45</v>
@@ -2748,7 +2775,7 @@
         <v>500</v>
       </c>
       <c r="S26" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T26" s="1">
         <v>45</v>
@@ -2824,7 +2851,7 @@
         <v>500</v>
       </c>
       <c r="S27" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T27" s="1">
         <v>45</v>
@@ -2900,7 +2927,7 @@
         <v>500</v>
       </c>
       <c r="S28" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T28" s="1">
         <v>45</v>
@@ -2976,7 +3003,7 @@
         <v>500</v>
       </c>
       <c r="S29" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T29" s="1">
         <v>45</v>
@@ -3052,7 +3079,7 @@
         <v>500</v>
       </c>
       <c r="S30" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T30" s="1">
         <v>45</v>
@@ -3128,7 +3155,7 @@
         <v>500</v>
       </c>
       <c r="S31" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T31" s="1">
         <v>45</v>
@@ -3204,7 +3231,7 @@
         <v>500</v>
       </c>
       <c r="S32" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T32" s="1">
         <v>45</v>
@@ -3280,7 +3307,7 @@
         <v>500</v>
       </c>
       <c r="S33" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T33" s="1">
         <v>45</v>
@@ -3356,7 +3383,7 @@
         <v>500</v>
       </c>
       <c r="S34" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T34" s="1">
         <v>45</v>
@@ -3432,7 +3459,7 @@
         <v>500</v>
       </c>
       <c r="S35" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T35" s="1">
         <v>45</v>
@@ -3508,7 +3535,7 @@
         <v>500</v>
       </c>
       <c r="S36" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T36" s="1">
         <v>45</v>
@@ -3584,7 +3611,7 @@
         <v>500</v>
       </c>
       <c r="S37" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T37" s="1">
         <v>45</v>
@@ -3660,7 +3687,7 @@
         <v>500</v>
       </c>
       <c r="S38" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T38" s="1">
         <v>45</v>
@@ -3736,7 +3763,7 @@
         <v>500</v>
       </c>
       <c r="S39" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T39" s="1">
         <v>45</v>
@@ -3812,7 +3839,7 @@
         <v>500</v>
       </c>
       <c r="S40" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T40" s="1">
         <v>45</v>
@@ -3888,7 +3915,7 @@
         <v>500</v>
       </c>
       <c r="S41" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T41" s="1">
         <v>45</v>
@@ -3964,7 +3991,7 @@
         <v>500</v>
       </c>
       <c r="S42" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T42" s="1">
         <v>45</v>
@@ -4040,7 +4067,7 @@
         <v>500</v>
       </c>
       <c r="S43" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T43" s="1">
         <v>45</v>
@@ -4116,7 +4143,7 @@
         <v>500</v>
       </c>
       <c r="S44" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T44" s="1">
         <v>45</v>
@@ -4192,7 +4219,7 @@
         <v>500</v>
       </c>
       <c r="S45" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T45" s="1">
         <v>45</v>
@@ -4268,7 +4295,7 @@
         <v>500</v>
       </c>
       <c r="S46" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T46" s="1">
         <v>45</v>
@@ -4344,7 +4371,7 @@
         <v>500</v>
       </c>
       <c r="S47" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T47" s="1">
         <v>45</v>
@@ -4420,7 +4447,7 @@
         <v>500</v>
       </c>
       <c r="S48" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T48" s="1">
         <v>45</v>
@@ -4496,7 +4523,7 @@
         <v>500</v>
       </c>
       <c r="S49" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T49" s="1">
         <v>45</v>
@@ -4572,7 +4599,7 @@
         <v>500</v>
       </c>
       <c r="S50" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T50" s="1">
         <v>45</v>
@@ -4648,7 +4675,7 @@
         <v>500</v>
       </c>
       <c r="S51" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T51" s="1">
         <v>45</v>
@@ -4724,7 +4751,7 @@
         <v>500</v>
       </c>
       <c r="S52" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T52" s="1">
         <v>45</v>
@@ -4800,7 +4827,7 @@
         <v>500</v>
       </c>
       <c r="S53" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T53" s="1">
         <v>45</v>
@@ -4876,7 +4903,7 @@
         <v>500</v>
       </c>
       <c r="S54" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T54" s="1">
         <v>45</v>
@@ -4952,7 +4979,7 @@
         <v>500</v>
       </c>
       <c r="S55" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T55" s="1">
         <v>45</v>
@@ -5028,7 +5055,7 @@
         <v>500</v>
       </c>
       <c r="S56" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T56" s="1">
         <v>45</v>
@@ -5104,7 +5131,7 @@
         <v>500</v>
       </c>
       <c r="S57" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T57" s="1">
         <v>45</v>
@@ -5180,7 +5207,7 @@
         <v>500</v>
       </c>
       <c r="S58" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T58" s="1">
         <v>45</v>
@@ -5256,7 +5283,7 @@
         <v>500</v>
       </c>
       <c r="S59" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T59" s="1">
         <v>45</v>
@@ -5332,7 +5359,7 @@
         <v>500</v>
       </c>
       <c r="S60" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T60" s="1">
         <v>45</v>
@@ -5408,7 +5435,7 @@
         <v>500</v>
       </c>
       <c r="S61" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T61" s="1">
         <v>45</v>
@@ -5484,7 +5511,7 @@
         <v>500</v>
       </c>
       <c r="S62" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T62" s="1">
         <v>45</v>
@@ -5560,7 +5587,7 @@
         <v>500</v>
       </c>
       <c r="S63" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T63" s="1">
         <v>45</v>
@@ -5636,7 +5663,7 @@
         <v>500</v>
       </c>
       <c r="S64" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T64" s="1">
         <v>45</v>
@@ -5712,7 +5739,7 @@
         <v>500</v>
       </c>
       <c r="S65" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T65" s="1">
         <v>45</v>
@@ -5788,7 +5815,7 @@
         <v>500</v>
       </c>
       <c r="S66" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T66" s="1">
         <v>45</v>
@@ -5864,7 +5891,7 @@
         <v>500</v>
       </c>
       <c r="S67" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T67" s="1">
         <v>45</v>
@@ -5940,7 +5967,7 @@
         <v>500</v>
       </c>
       <c r="S68" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T68" s="1">
         <v>45</v>
@@ -6016,7 +6043,7 @@
         <v>500</v>
       </c>
       <c r="S69" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T69" s="1">
         <v>45</v>
@@ -6092,7 +6119,7 @@
         <v>500</v>
       </c>
       <c r="S70" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T70" s="1">
         <v>45</v>
@@ -6168,7 +6195,7 @@
         <v>500</v>
       </c>
       <c r="S71" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T71" s="1">
         <v>45</v>
@@ -6244,7 +6271,7 @@
         <v>500</v>
       </c>
       <c r="S72" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T72" s="1">
         <v>45</v>
@@ -6320,7 +6347,7 @@
         <v>500</v>
       </c>
       <c r="S73" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T73" s="1">
         <v>45</v>
@@ -6396,7 +6423,7 @@
         <v>500</v>
       </c>
       <c r="S74" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T74" s="1">
         <v>45</v>
@@ -6472,7 +6499,7 @@
         <v>500</v>
       </c>
       <c r="S75" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T75" s="1">
         <v>45</v>
@@ -6548,7 +6575,7 @@
         <v>500</v>
       </c>
       <c r="S76" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T76" s="1">
         <v>45</v>
@@ -6624,7 +6651,7 @@
         <v>500</v>
       </c>
       <c r="S77" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T77" s="1">
         <v>45</v>
@@ -6700,7 +6727,7 @@
         <v>500</v>
       </c>
       <c r="S78" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T78" s="1">
         <v>45</v>
@@ -6776,7 +6803,7 @@
         <v>500</v>
       </c>
       <c r="S79" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T79" s="1">
         <v>45</v>
@@ -6852,7 +6879,7 @@
         <v>500</v>
       </c>
       <c r="S80" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T80" s="1">
         <v>45</v>
@@ -6928,7 +6955,7 @@
         <v>500</v>
       </c>
       <c r="S81" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T81" s="1">
         <v>45</v>
@@ -7004,7 +7031,7 @@
         <v>500</v>
       </c>
       <c r="S82" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T82" s="1">
         <v>45</v>
@@ -7080,7 +7107,7 @@
         <v>500</v>
       </c>
       <c r="S83" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T83" s="1">
         <v>45</v>
@@ -7156,7 +7183,7 @@
         <v>500</v>
       </c>
       <c r="S84" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T84" s="1">
         <v>45</v>
@@ -7232,7 +7259,7 @@
         <v>500</v>
       </c>
       <c r="S85" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T85" s="1">
         <v>45</v>
@@ -7308,7 +7335,7 @@
         <v>500</v>
       </c>
       <c r="S86" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T86" s="1">
         <v>45</v>
@@ -7384,7 +7411,7 @@
         <v>500</v>
       </c>
       <c r="S87" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T87" s="1">
         <v>45</v>
@@ -7460,7 +7487,7 @@
         <v>500</v>
       </c>
       <c r="S88" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T88" s="1">
         <v>45</v>
@@ -7536,7 +7563,7 @@
         <v>500</v>
       </c>
       <c r="S89" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T89" s="1">
         <v>45</v>
@@ -7612,7 +7639,7 @@
         <v>500</v>
       </c>
       <c r="S90" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T90" s="1">
         <v>45</v>
@@ -7688,7 +7715,7 @@
         <v>500</v>
       </c>
       <c r="S91" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T91" s="1">
         <v>45</v>
@@ -7764,7 +7791,7 @@
         <v>500</v>
       </c>
       <c r="S92" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T92" s="1">
         <v>45</v>
@@ -7840,7 +7867,7 @@
         <v>500</v>
       </c>
       <c r="S93" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T93" s="1">
         <v>45</v>
@@ -7916,7 +7943,7 @@
         <v>500</v>
       </c>
       <c r="S94" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T94" s="1">
         <v>45</v>
@@ -7992,7 +8019,7 @@
         <v>500</v>
       </c>
       <c r="S95" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T95" s="1">
         <v>45</v>
@@ -8068,7 +8095,7 @@
         <v>500</v>
       </c>
       <c r="S96" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T96" s="1">
         <v>45</v>
@@ -8144,7 +8171,7 @@
         <v>500</v>
       </c>
       <c r="S97" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T97" s="1">
         <v>45</v>
@@ -8220,7 +8247,7 @@
         <v>500</v>
       </c>
       <c r="S98" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T98" s="1">
         <v>45</v>
@@ -8296,7 +8323,7 @@
         <v>500</v>
       </c>
       <c r="S99" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T99" s="1">
         <v>45</v>
@@ -8372,7 +8399,7 @@
         <v>500</v>
       </c>
       <c r="S100" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T100" s="1">
         <v>45</v>
@@ -8448,7 +8475,7 @@
         <v>500</v>
       </c>
       <c r="S101" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T101" s="1">
         <v>45</v>
@@ -8524,7 +8551,7 @@
         <v>500</v>
       </c>
       <c r="S102" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T102" s="1">
         <v>45</v>
@@ -8600,7 +8627,7 @@
         <v>500</v>
       </c>
       <c r="S103" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T103" s="1">
         <v>45</v>
@@ -8676,7 +8703,7 @@
         <v>500</v>
       </c>
       <c r="S104" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T104" s="1">
         <v>45</v>
@@ -8752,7 +8779,7 @@
         <v>500</v>
       </c>
       <c r="S105" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T105" s="1">
         <v>45</v>
@@ -8828,7 +8855,7 @@
         <v>500</v>
       </c>
       <c r="S106" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T106" s="1">
         <v>45</v>
@@ -8904,7 +8931,7 @@
         <v>500</v>
       </c>
       <c r="S107" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T107" s="1">
         <v>45</v>
@@ -8980,7 +9007,7 @@
         <v>500</v>
       </c>
       <c r="S108" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T108" s="1">
         <v>45</v>
@@ -9056,7 +9083,7 @@
         <v>500</v>
       </c>
       <c r="S109" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T109" s="1">
         <v>45</v>
@@ -9132,7 +9159,7 @@
         <v>500</v>
       </c>
       <c r="S110" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T110" s="1">
         <v>45</v>
@@ -9208,7 +9235,7 @@
         <v>500</v>
       </c>
       <c r="S111" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T111" s="1">
         <v>45</v>
@@ -9284,7 +9311,7 @@
         <v>500</v>
       </c>
       <c r="S112" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T112" s="1">
         <v>45</v>
@@ -9360,7 +9387,7 @@
         <v>500</v>
       </c>
       <c r="S113" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T113" s="1">
         <v>45</v>
@@ -9436,7 +9463,7 @@
         <v>500</v>
       </c>
       <c r="S114" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T114" s="1">
         <v>45</v>
@@ -9512,7 +9539,7 @@
         <v>500</v>
       </c>
       <c r="S115" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T115" s="1">
         <v>45</v>
@@ -9588,7 +9615,7 @@
         <v>500</v>
       </c>
       <c r="S116" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T116" s="1">
         <v>45</v>
@@ -9664,7 +9691,7 @@
         <v>500</v>
       </c>
       <c r="S117" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T117" s="1">
         <v>45</v>
@@ -9740,7 +9767,7 @@
         <v>500</v>
       </c>
       <c r="S118" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T118" s="1">
         <v>45</v>
@@ -9816,7 +9843,7 @@
         <v>500</v>
       </c>
       <c r="S119" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T119" s="1">
         <v>45</v>
@@ -9892,7 +9919,7 @@
         <v>500</v>
       </c>
       <c r="S120" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T120" s="1">
         <v>45</v>
@@ -9968,7 +9995,7 @@
         <v>500</v>
       </c>
       <c r="S121" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T121" s="1">
         <v>45</v>
@@ -10044,7 +10071,7 @@
         <v>500</v>
       </c>
       <c r="S122" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T122" s="1">
         <v>45</v>
@@ -10120,7 +10147,7 @@
         <v>500</v>
       </c>
       <c r="S123" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T123" s="1">
         <v>45</v>
@@ -10196,7 +10223,7 @@
         <v>500</v>
       </c>
       <c r="S124" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T124" s="1">
         <v>45</v>
@@ -10272,7 +10299,7 @@
         <v>500</v>
       </c>
       <c r="S125" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T125" s="1">
         <v>45</v>
@@ -10348,7 +10375,7 @@
         <v>500</v>
       </c>
       <c r="S126" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T126" s="1">
         <v>45</v>
@@ -10424,7 +10451,7 @@
         <v>500</v>
       </c>
       <c r="S127" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T127" s="1">
         <v>45</v>
@@ -10500,7 +10527,7 @@
         <v>500</v>
       </c>
       <c r="S128" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T128" s="1">
         <v>45</v>
@@ -10576,7 +10603,7 @@
         <v>500</v>
       </c>
       <c r="S129" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T129" s="1">
         <v>45</v>
@@ -10652,7 +10679,7 @@
         <v>500</v>
       </c>
       <c r="S130" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T130" s="1">
         <v>45</v>
@@ -10728,7 +10755,7 @@
         <v>500</v>
       </c>
       <c r="S131" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T131" s="1">
         <v>45</v>
@@ -10804,7 +10831,7 @@
         <v>500</v>
       </c>
       <c r="S132" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T132" s="1">
         <v>45</v>
@@ -10880,7 +10907,7 @@
         <v>500</v>
       </c>
       <c r="S133" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T133" s="1">
         <v>45</v>
@@ -10956,7 +10983,7 @@
         <v>500</v>
       </c>
       <c r="S134" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T134" s="1">
         <v>45</v>
@@ -11032,7 +11059,7 @@
         <v>500</v>
       </c>
       <c r="S135" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T135" s="1">
         <v>45</v>
@@ -11108,7 +11135,7 @@
         <v>500</v>
       </c>
       <c r="S136" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T136" s="1">
         <v>45</v>
@@ -11184,7 +11211,7 @@
         <v>500</v>
       </c>
       <c r="S137" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T137" s="1">
         <v>45</v>
@@ -11260,7 +11287,7 @@
         <v>500</v>
       </c>
       <c r="S138" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T138" s="1">
         <v>45</v>
@@ -11336,7 +11363,7 @@
         <v>500</v>
       </c>
       <c r="S139" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T139" s="1">
         <v>45</v>
@@ -11412,7 +11439,7 @@
         <v>500</v>
       </c>
       <c r="S140" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T140" s="1">
         <v>45</v>
@@ -11488,7 +11515,7 @@
         <v>500</v>
       </c>
       <c r="S141" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T141" s="1">
         <v>45</v>
@@ -11564,7 +11591,7 @@
         <v>500</v>
       </c>
       <c r="S142" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T142" s="1">
         <v>45</v>
@@ -11640,7 +11667,7 @@
         <v>500</v>
       </c>
       <c r="S143" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T143" s="1">
         <v>45</v>
@@ -11716,7 +11743,7 @@
         <v>500</v>
       </c>
       <c r="S144" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T144" s="1">
         <v>45</v>
@@ -11792,7 +11819,7 @@
         <v>500</v>
       </c>
       <c r="S145" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T145" s="1">
         <v>45</v>
@@ -11868,7 +11895,7 @@
         <v>500</v>
       </c>
       <c r="S146" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T146" s="1">
         <v>45</v>
@@ -11944,7 +11971,7 @@
         <v>500</v>
       </c>
       <c r="S147" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T147" s="1">
         <v>45</v>
@@ -12020,7 +12047,7 @@
         <v>500</v>
       </c>
       <c r="S148" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T148" s="1">
         <v>45</v>
@@ -12096,7 +12123,7 @@
         <v>500</v>
       </c>
       <c r="S149" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T149" s="1">
         <v>45</v>
@@ -12172,7 +12199,7 @@
         <v>500</v>
       </c>
       <c r="S150" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T150" s="1">
         <v>45</v>
@@ -12248,7 +12275,7 @@
         <v>500</v>
       </c>
       <c r="S151" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T151" s="1">
         <v>45</v>
@@ -12324,7 +12351,7 @@
         <v>500</v>
       </c>
       <c r="S152" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T152" s="1">
         <v>45</v>
@@ -12400,7 +12427,7 @@
         <v>500</v>
       </c>
       <c r="S153" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T153" s="1">
         <v>45</v>
@@ -12476,7 +12503,7 @@
         <v>500</v>
       </c>
       <c r="S154" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T154" s="1">
         <v>45</v>
@@ -12552,7 +12579,7 @@
         <v>500</v>
       </c>
       <c r="S155" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T155" s="1">
         <v>45</v>
@@ -12628,7 +12655,7 @@
         <v>500</v>
       </c>
       <c r="S156" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T156" s="1">
         <v>45</v>
@@ -12704,7 +12731,7 @@
         <v>500</v>
       </c>
       <c r="S157" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T157" s="1">
         <v>45</v>
@@ -12780,7 +12807,7 @@
         <v>500</v>
       </c>
       <c r="S158" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T158" s="1">
         <v>45</v>
@@ -12856,7 +12883,7 @@
         <v>500</v>
       </c>
       <c r="S159" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T159" s="1">
         <v>45</v>
@@ -12932,7 +12959,7 @@
         <v>500</v>
       </c>
       <c r="S160" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T160" s="1">
         <v>45</v>
@@ -13008,7 +13035,7 @@
         <v>500</v>
       </c>
       <c r="S161" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T161" s="1">
         <v>45</v>
@@ -13084,7 +13111,7 @@
         <v>500</v>
       </c>
       <c r="S162" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T162" s="1">
         <v>45</v>
@@ -13160,7 +13187,7 @@
         <v>500</v>
       </c>
       <c r="S163" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T163" s="1">
         <v>45</v>
@@ -13236,7 +13263,7 @@
         <v>500</v>
       </c>
       <c r="S164" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T164" s="1">
         <v>45</v>
@@ -13312,7 +13339,7 @@
         <v>500</v>
       </c>
       <c r="S165" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T165" s="1">
         <v>45</v>
@@ -13388,7 +13415,7 @@
         <v>500</v>
       </c>
       <c r="S166" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T166" s="1">
         <v>45</v>
@@ -13464,7 +13491,7 @@
         <v>500</v>
       </c>
       <c r="S167" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T167" s="1">
         <v>45</v>
@@ -13540,7 +13567,7 @@
         <v>500</v>
       </c>
       <c r="S168" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T168" s="1">
         <v>45</v>
@@ -13616,7 +13643,7 @@
         <v>500</v>
       </c>
       <c r="S169" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T169" s="1">
         <v>45</v>
@@ -13692,7 +13719,7 @@
         <v>500</v>
       </c>
       <c r="S170" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T170" s="1">
         <v>45</v>
@@ -13768,7 +13795,7 @@
         <v>500</v>
       </c>
       <c r="S171" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T171" s="1">
         <v>45</v>
@@ -13844,7 +13871,7 @@
         <v>500</v>
       </c>
       <c r="S172" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T172" s="1">
         <v>45</v>
@@ -13920,7 +13947,7 @@
         <v>500</v>
       </c>
       <c r="S173" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T173" s="1">
         <v>45</v>
@@ -13996,7 +14023,7 @@
         <v>500</v>
       </c>
       <c r="S174" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T174" s="1">
         <v>45</v>
@@ -14072,7 +14099,7 @@
         <v>500</v>
       </c>
       <c r="S175" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T175" s="1">
         <v>45</v>
@@ -14148,7 +14175,7 @@
         <v>500</v>
       </c>
       <c r="S176" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T176" s="1">
         <v>45</v>
@@ -14224,7 +14251,7 @@
         <v>500</v>
       </c>
       <c r="S177" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T177" s="1">
         <v>45</v>
@@ -14300,7 +14327,7 @@
         <v>500</v>
       </c>
       <c r="S178" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T178" s="1">
         <v>45</v>
@@ -14376,7 +14403,7 @@
         <v>500</v>
       </c>
       <c r="S179" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T179" s="1">
         <v>45</v>
@@ -14452,7 +14479,7 @@
         <v>500</v>
       </c>
       <c r="S180" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T180" s="1">
         <v>45</v>
@@ -14528,7 +14555,7 @@
         <v>500</v>
       </c>
       <c r="S181" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T181" s="1">
         <v>45</v>
@@ -14604,7 +14631,7 @@
         <v>500</v>
       </c>
       <c r="S182" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T182" s="1">
         <v>45</v>
@@ -14680,7 +14707,7 @@
         <v>500</v>
       </c>
       <c r="S183" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T183" s="1">
         <v>45</v>
@@ -14756,7 +14783,7 @@
         <v>500</v>
       </c>
       <c r="S184" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T184" s="1">
         <v>45</v>
@@ -14832,7 +14859,7 @@
         <v>500</v>
       </c>
       <c r="S185" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T185" s="1">
         <v>45</v>
@@ -14908,7 +14935,7 @@
         <v>500</v>
       </c>
       <c r="S186" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T186" s="1">
         <v>45</v>
@@ -14984,7 +15011,7 @@
         <v>500</v>
       </c>
       <c r="S187" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T187" s="1">
         <v>45</v>
@@ -15060,7 +15087,7 @@
         <v>500</v>
       </c>
       <c r="S188" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T188" s="1">
         <v>45</v>
@@ -15136,7 +15163,7 @@
         <v>500</v>
       </c>
       <c r="S189" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T189" s="1">
         <v>45</v>
@@ -15212,7 +15239,7 @@
         <v>500</v>
       </c>
       <c r="S190" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T190" s="1">
         <v>45</v>
@@ -15288,7 +15315,7 @@
         <v>500</v>
       </c>
       <c r="S191" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T191" s="1">
         <v>45</v>
@@ -15364,7 +15391,7 @@
         <v>500</v>
       </c>
       <c r="S192" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T192" s="1">
         <v>45</v>
@@ -15440,7 +15467,7 @@
         <v>500</v>
       </c>
       <c r="S193" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T193" s="1">
         <v>45</v>
@@ -15516,7 +15543,7 @@
         <v>500</v>
       </c>
       <c r="S194" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T194" s="1">
         <v>45</v>
@@ -15592,7 +15619,7 @@
         <v>500</v>
       </c>
       <c r="S195" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T195" s="1">
         <v>45</v>
@@ -15668,7 +15695,7 @@
         <v>500</v>
       </c>
       <c r="S196" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T196" s="1">
         <v>45</v>
@@ -15744,7 +15771,7 @@
         <v>500</v>
       </c>
       <c r="S197" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T197" s="1">
         <v>45</v>
@@ -15820,7 +15847,7 @@
         <v>500</v>
       </c>
       <c r="S198" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T198" s="1">
         <v>45</v>
@@ -15896,7 +15923,7 @@
         <v>500</v>
       </c>
       <c r="S199" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T199" s="1">
         <v>45</v>
@@ -15972,7 +15999,7 @@
         <v>500</v>
       </c>
       <c r="S200" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T200" s="1">
         <v>45</v>
@@ -16048,7 +16075,7 @@
         <v>500</v>
       </c>
       <c r="S201" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T201" s="1">
         <v>45</v>
@@ -16124,7 +16151,7 @@
         <v>500</v>
       </c>
       <c r="S202" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T202" s="1">
         <v>45</v>
@@ -16200,7 +16227,7 @@
         <v>500</v>
       </c>
       <c r="S203" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T203" s="1">
         <v>45</v>
@@ -16276,7 +16303,7 @@
         <v>500</v>
       </c>
       <c r="S204" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T204" s="1">
         <v>45</v>
@@ -16352,7 +16379,7 @@
         <v>500</v>
       </c>
       <c r="S205" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T205" s="1">
         <v>45</v>
@@ -16428,7 +16455,7 @@
         <v>500</v>
       </c>
       <c r="S206" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T206" s="1">
         <v>45</v>
@@ -16504,7 +16531,7 @@
         <v>500</v>
       </c>
       <c r="S207" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T207" s="1">
         <v>45</v>
@@ -16580,7 +16607,7 @@
         <v>500</v>
       </c>
       <c r="S208" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T208" s="1">
         <v>45</v>
@@ -16656,7 +16683,7 @@
         <v>500</v>
       </c>
       <c r="S209" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T209" s="1">
         <v>45</v>
@@ -16732,7 +16759,7 @@
         <v>500</v>
       </c>
       <c r="S210" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T210" s="1">
         <v>45</v>
@@ -16808,7 +16835,7 @@
         <v>500</v>
       </c>
       <c r="S211" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T211" s="1">
         <v>45</v>
@@ -16884,7 +16911,7 @@
         <v>500</v>
       </c>
       <c r="S212" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T212" s="1">
         <v>45</v>
@@ -16960,7 +16987,7 @@
         <v>500</v>
       </c>
       <c r="S213" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T213" s="1">
         <v>45</v>
@@ -17036,7 +17063,7 @@
         <v>500</v>
       </c>
       <c r="S214" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T214" s="1">
         <v>45</v>
@@ -17112,7 +17139,7 @@
         <v>500</v>
       </c>
       <c r="S215" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T215" s="1">
         <v>45</v>
@@ -17188,7 +17215,7 @@
         <v>500</v>
       </c>
       <c r="S216" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T216" s="1">
         <v>45</v>
@@ -17264,7 +17291,7 @@
         <v>500</v>
       </c>
       <c r="S217" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T217" s="1">
         <v>45</v>
@@ -17340,7 +17367,7 @@
         <v>500</v>
       </c>
       <c r="S218" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T218" s="1">
         <v>45</v>
@@ -17416,7 +17443,7 @@
         <v>500</v>
       </c>
       <c r="S219" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T219" s="1">
         <v>45</v>
@@ -17492,7 +17519,7 @@
         <v>500</v>
       </c>
       <c r="S220" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T220" s="1">
         <v>45</v>
@@ -17568,7 +17595,7 @@
         <v>500</v>
       </c>
       <c r="S221" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T221" s="1">
         <v>45</v>
@@ -17644,7 +17671,7 @@
         <v>500</v>
       </c>
       <c r="S222" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T222" s="1">
         <v>45</v>
@@ -17720,7 +17747,7 @@
         <v>500</v>
       </c>
       <c r="S223" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T223" s="1">
         <v>45</v>
@@ -17796,7 +17823,7 @@
         <v>500</v>
       </c>
       <c r="S224" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T224" s="1">
         <v>45</v>
@@ -17872,7 +17899,7 @@
         <v>500</v>
       </c>
       <c r="S225" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T225" s="1">
         <v>45</v>
@@ -17948,7 +17975,7 @@
         <v>500</v>
       </c>
       <c r="S226" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T226" s="1">
         <v>45</v>
@@ -18024,7 +18051,7 @@
         <v>500</v>
       </c>
       <c r="S227" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T227" s="1">
         <v>45</v>
@@ -18100,7 +18127,7 @@
         <v>500</v>
       </c>
       <c r="S228" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T228" s="1">
         <v>45</v>
@@ -18176,7 +18203,7 @@
         <v>500</v>
       </c>
       <c r="S229" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T229" s="1">
         <v>45</v>
@@ -18252,7 +18279,7 @@
         <v>500</v>
       </c>
       <c r="S230" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T230" s="1">
         <v>45</v>
@@ -18328,7 +18355,7 @@
         <v>500</v>
       </c>
       <c r="S231" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T231" s="1">
         <v>45</v>
@@ -18404,7 +18431,7 @@
         <v>500</v>
       </c>
       <c r="S232" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T232" s="1">
         <v>45</v>
@@ -18480,7 +18507,7 @@
         <v>500</v>
       </c>
       <c r="S233" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T233" s="1">
         <v>45</v>
@@ -18556,7 +18583,7 @@
         <v>500</v>
       </c>
       <c r="S234" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T234" s="1">
         <v>45</v>
@@ -18632,7 +18659,7 @@
         <v>500</v>
       </c>
       <c r="S235" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T235" s="1">
         <v>45</v>
@@ -18708,7 +18735,7 @@
         <v>500</v>
       </c>
       <c r="S236" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T236" s="1">
         <v>45</v>
@@ -18784,7 +18811,7 @@
         <v>500</v>
       </c>
       <c r="S237" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T237" s="1">
         <v>45</v>
@@ -18860,7 +18887,7 @@
         <v>500</v>
       </c>
       <c r="S238" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T238" s="1">
         <v>45</v>
@@ -18936,7 +18963,7 @@
         <v>500</v>
       </c>
       <c r="S239" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T239" s="1">
         <v>45</v>
@@ -19012,7 +19039,7 @@
         <v>500</v>
       </c>
       <c r="S240" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T240" s="1">
         <v>45</v>
@@ -19088,7 +19115,7 @@
         <v>500</v>
       </c>
       <c r="S241" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T241" s="1">
         <v>45</v>
@@ -19164,7 +19191,7 @@
         <v>500</v>
       </c>
       <c r="S242" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T242" s="1">
         <v>45</v>
@@ -19240,7 +19267,7 @@
         <v>500</v>
       </c>
       <c r="S243" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T243" s="1">
         <v>45</v>
@@ -19316,7 +19343,7 @@
         <v>500</v>
       </c>
       <c r="S244" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T244" s="1">
         <v>45</v>
@@ -19392,7 +19419,7 @@
         <v>500</v>
       </c>
       <c r="S245" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T245" s="1">
         <v>45</v>
@@ -19468,7 +19495,7 @@
         <v>500</v>
       </c>
       <c r="S246" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T246" s="1">
         <v>45</v>
@@ -19544,7 +19571,7 @@
         <v>500</v>
       </c>
       <c r="S247" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T247" s="1">
         <v>45</v>
@@ -19620,7 +19647,7 @@
         <v>500</v>
       </c>
       <c r="S248" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T248" s="1">
         <v>45</v>
@@ -19696,7 +19723,7 @@
         <v>500</v>
       </c>
       <c r="S249" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T249" s="1">
         <v>45</v>
@@ -19772,7 +19799,7 @@
         <v>500</v>
       </c>
       <c r="S250" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T250" s="1">
         <v>45</v>
@@ -19848,7 +19875,7 @@
         <v>500</v>
       </c>
       <c r="S251" s="1">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="T251" s="1">
         <v>45</v>

--- a/cbrunner/Parameters/Forest_Operation_Costs_BC.xlsx
+++ b/cbrunner/Parameters/Forest_Operation_Costs_BC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42692DFF-F693-4D0A-86F5-E72242FC4734}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05B195E-3AC7-4E3D-9102-966FED7B91AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Inflation" sheetId="2" r:id="rId2"/>
     <sheet name="With Inflation" sheetId="3" r:id="rId3"/>
     <sheet name="Fixed 2021" sheetId="4" r:id="rId4"/>
+    <sheet name="OCF Reforestation" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Hember, Robert FLNR:EX:</t>
         </r>
@@ -56,7 +57,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0.35 $/seedling: Mike
@@ -72,7 +73,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Hember, Robert FLNR:EX:</t>
         </r>
@@ -81,7 +82,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0.55$/tree: Mike</t>
@@ -96,7 +97,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Hember, Robert FLNR:EX:</t>
         </r>
@@ -105,7 +106,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 45$/ha: Mike</t>
@@ -120,7 +121,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Hember, Robert FLNR:EX:</t>
         </r>
@@ -129,7 +130,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 10-17%: Mike</t>
@@ -144,7 +145,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Hember, Robert FLNR:EX:</t>
         </r>
@@ -153,7 +154,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 500 Mike</t>
@@ -176,7 +177,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Hember, Robert FLNR:EX:</t>
         </r>
@@ -185,14 +186,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 45: Lorraine</t>
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{42E4382A-1145-4F27-A9DB-3E3959B9C068}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{AD41BE31-9BD2-4172-9C6C-EB9234F493C4}">
       <text>
         <r>
           <rPr>
@@ -200,7 +201,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Hember, Robert FLNR:EX:</t>
         </r>
@@ -209,7 +210,31 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Includes soil rehabilitation costs, but excludes planting costs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{42E4382A-1145-4F27-A9DB-3E3959B9C068}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hember, Robert FLNR:EX:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 13 CDN$/m3: FCI DB
@@ -222,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Year</t>
   </si>
@@ -304,6 +329,60 @@
   <si>
     <t>Cost Slashpile Burn (CDN$/m3)</t>
   </si>
+  <si>
+    <t>Nursery sowing ($/tree)</t>
+  </si>
+  <si>
+    <t>Planting ($/tree)</t>
+  </si>
+  <si>
+    <t>Tota per tree cost ($/tree)</t>
+  </si>
+  <si>
+    <t>Num survey</t>
+  </si>
+  <si>
+    <t>Survey ($/ha)</t>
+  </si>
+  <si>
+    <t>Total survey cost ($/ha)</t>
+  </si>
+  <si>
+    <t>Total fixed cost ($/ha)</t>
+  </si>
+  <si>
+    <t>Planting density (SPH)</t>
+  </si>
+  <si>
+    <t>Density-dependnet cost ($/ha)</t>
+  </si>
+  <si>
+    <t>Density-independent cost ($/ha)</t>
+  </si>
+  <si>
+    <t>Pre-admin cost ($/ha)</t>
+  </si>
+  <si>
+    <t>Admin rate</t>
+  </si>
+  <si>
+    <t>Admin cost ($/ha)</t>
+  </si>
+  <si>
+    <t>Total cost ($/ha)</t>
+  </si>
+  <si>
+    <t>OCF non-obligation reforestation costs:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site prep / ripping ($/ha) </t>
+  </si>
+  <si>
+    <t>DM erradication</t>
+  </si>
+  <si>
+    <t>Cost PAS Deactivation (CDN$/ha)</t>
+  </si>
 </sst>
 </file>
 
@@ -329,14 +408,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -389,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -435,6 +514,12 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,13 +873,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W253"/>
+  <dimension ref="A1:X253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P239" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U246" sqref="U246"/>
+      <selection pane="bottomRight" activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,11 +897,11 @@
     <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
     <col min="18" max="18" width="11.109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="11.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.77734375" customWidth="1"/>
+    <col min="20" max="21" width="11.5546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -877,11 +962,14 @@
       <c r="T1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1901</v>
       </c>
@@ -953,10 +1041,13 @@
         <v>45</v>
       </c>
       <c r="U2" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V2" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A34" si="1">A2+1</f>
         <v>1902</v>
@@ -1029,11 +1120,14 @@
         <v>45</v>
       </c>
       <c r="U3" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V3" s="1">
         <v>13</v>
       </c>
-      <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" si="1"/>
         <v>1903</v>
@@ -1106,11 +1200,14 @@
         <v>45</v>
       </c>
       <c r="U4" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V4" s="1">
         <v>13</v>
       </c>
-      <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
         <v>1904</v>
@@ -1183,11 +1280,14 @@
         <v>45</v>
       </c>
       <c r="U5" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V5" s="1">
         <v>13</v>
       </c>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
         <v>1905</v>
@@ -1260,11 +1360,14 @@
         <v>45</v>
       </c>
       <c r="U6" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V6" s="1">
         <v>13</v>
       </c>
-      <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>1906</v>
@@ -1337,10 +1440,13 @@
         <v>45</v>
       </c>
       <c r="U7" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V7" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
         <v>1907</v>
@@ -1413,10 +1519,13 @@
         <v>45</v>
       </c>
       <c r="U8" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V8" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
         <v>1908</v>
@@ -1489,10 +1598,13 @@
         <v>45</v>
       </c>
       <c r="U9" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V9" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
         <v>1909</v>
@@ -1565,10 +1677,13 @@
         <v>45</v>
       </c>
       <c r="U10" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V10" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>1910</v>
@@ -1641,10 +1756,13 @@
         <v>45</v>
       </c>
       <c r="U11" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V11" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>1911</v>
@@ -1717,10 +1835,13 @@
         <v>45</v>
       </c>
       <c r="U12" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V12" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>1912</v>
@@ -1793,10 +1914,13 @@
         <v>45</v>
       </c>
       <c r="U13" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V13" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
         <v>1913</v>
@@ -1869,10 +1993,13 @@
         <v>45</v>
       </c>
       <c r="U14" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V14" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>1914</v>
@@ -1945,10 +2072,13 @@
         <v>45</v>
       </c>
       <c r="U15" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>1915</v>
@@ -2021,10 +2151,13 @@
         <v>45</v>
       </c>
       <c r="U16" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V16" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>1916</v>
@@ -2097,10 +2230,13 @@
         <v>45</v>
       </c>
       <c r="U17" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V17" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>1917</v>
@@ -2173,10 +2309,13 @@
         <v>45</v>
       </c>
       <c r="U18" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V18" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>1918</v>
@@ -2249,10 +2388,13 @@
         <v>45</v>
       </c>
       <c r="U19" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V19" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>1919</v>
@@ -2325,10 +2467,13 @@
         <v>45</v>
       </c>
       <c r="U20" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V20" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
         <v>1920</v>
@@ -2401,10 +2546,13 @@
         <v>45</v>
       </c>
       <c r="U21" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V21" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
         <v>1921</v>
@@ -2477,10 +2625,13 @@
         <v>45</v>
       </c>
       <c r="U22" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V22" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
         <v>1922</v>
@@ -2553,10 +2704,13 @@
         <v>45</v>
       </c>
       <c r="U23" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V23" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
         <v>1923</v>
@@ -2629,10 +2783,13 @@
         <v>45</v>
       </c>
       <c r="U24" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V24" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
         <v>1924</v>
@@ -2705,10 +2862,13 @@
         <v>45</v>
       </c>
       <c r="U25" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V25" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
         <v>1925</v>
@@ -2781,10 +2941,13 @@
         <v>45</v>
       </c>
       <c r="U26" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V26" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="1"/>
         <v>1926</v>
@@ -2857,10 +3020,13 @@
         <v>45</v>
       </c>
       <c r="U27" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V27" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
         <v>1927</v>
@@ -2933,10 +3099,13 @@
         <v>45</v>
       </c>
       <c r="U28" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V28" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
         <v>1928</v>
@@ -3009,10 +3178,13 @@
         <v>45</v>
       </c>
       <c r="U29" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V29" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="1"/>
         <v>1929</v>
@@ -3085,10 +3257,13 @@
         <v>45</v>
       </c>
       <c r="U30" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V30" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="1"/>
         <v>1930</v>
@@ -3161,10 +3336,13 @@
         <v>45</v>
       </c>
       <c r="U31" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V31" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="1"/>
         <v>1931</v>
@@ -3237,10 +3415,13 @@
         <v>45</v>
       </c>
       <c r="U32" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V32" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="1"/>
         <v>1932</v>
@@ -3313,10 +3494,13 @@
         <v>45</v>
       </c>
       <c r="U33" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V33" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="1"/>
         <v>1933</v>
@@ -3389,10 +3573,13 @@
         <v>45</v>
       </c>
       <c r="U34" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V34" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" ref="A35:A67" si="6">A34+1</f>
         <v>1934</v>
@@ -3465,10 +3652,13 @@
         <v>45</v>
       </c>
       <c r="U35" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V35" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="6"/>
         <v>1935</v>
@@ -3541,10 +3731,13 @@
         <v>45</v>
       </c>
       <c r="U36" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V36" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="6"/>
         <v>1936</v>
@@ -3617,10 +3810,13 @@
         <v>45</v>
       </c>
       <c r="U37" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V37" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="6"/>
         <v>1937</v>
@@ -3693,10 +3889,13 @@
         <v>45</v>
       </c>
       <c r="U38" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V38" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" si="6"/>
         <v>1938</v>
@@ -3769,10 +3968,13 @@
         <v>45</v>
       </c>
       <c r="U39" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V39" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" si="6"/>
         <v>1939</v>
@@ -3845,10 +4047,13 @@
         <v>45</v>
       </c>
       <c r="U40" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V40" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" si="6"/>
         <v>1940</v>
@@ -3921,10 +4126,13 @@
         <v>45</v>
       </c>
       <c r="U41" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V41" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" si="6"/>
         <v>1941</v>
@@ -3997,10 +4205,13 @@
         <v>45</v>
       </c>
       <c r="U42" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V42" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" si="6"/>
         <v>1942</v>
@@ -4073,10 +4284,13 @@
         <v>45</v>
       </c>
       <c r="U43" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V43" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" si="6"/>
         <v>1943</v>
@@ -4149,10 +4363,13 @@
         <v>45</v>
       </c>
       <c r="U44" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V44" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" si="6"/>
         <v>1944</v>
@@ -4225,10 +4442,13 @@
         <v>45</v>
       </c>
       <c r="U45" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V45" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" si="6"/>
         <v>1945</v>
@@ -4301,10 +4521,13 @@
         <v>45</v>
       </c>
       <c r="U46" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V46" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" si="6"/>
         <v>1946</v>
@@ -4377,10 +4600,13 @@
         <v>45</v>
       </c>
       <c r="U47" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V47" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" si="6"/>
         <v>1947</v>
@@ -4453,10 +4679,13 @@
         <v>45</v>
       </c>
       <c r="U48" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V48" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" si="6"/>
         <v>1948</v>
@@ -4529,10 +4758,13 @@
         <v>45</v>
       </c>
       <c r="U49" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V49" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f t="shared" si="6"/>
         <v>1949</v>
@@ -4605,10 +4837,13 @@
         <v>45</v>
       </c>
       <c r="U50" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V50" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" si="6"/>
         <v>1950</v>
@@ -4681,10 +4916,13 @@
         <v>45</v>
       </c>
       <c r="U51" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V51" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <f t="shared" si="6"/>
         <v>1951</v>
@@ -4757,10 +4995,13 @@
         <v>45</v>
       </c>
       <c r="U52" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V52" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" si="6"/>
         <v>1952</v>
@@ -4833,10 +5074,13 @@
         <v>45</v>
       </c>
       <c r="U53" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V53" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" si="6"/>
         <v>1953</v>
@@ -4909,10 +5153,13 @@
         <v>45</v>
       </c>
       <c r="U54" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V54" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" si="6"/>
         <v>1954</v>
@@ -4985,10 +5232,13 @@
         <v>45</v>
       </c>
       <c r="U55" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V55" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f t="shared" si="6"/>
         <v>1955</v>
@@ -5061,10 +5311,13 @@
         <v>45</v>
       </c>
       <c r="U56" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V56" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <f t="shared" si="6"/>
         <v>1956</v>
@@ -5137,10 +5390,13 @@
         <v>45</v>
       </c>
       <c r="U57" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V57" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" si="6"/>
         <v>1957</v>
@@ -5213,10 +5469,13 @@
         <v>45</v>
       </c>
       <c r="U58" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V58" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" si="6"/>
         <v>1958</v>
@@ -5289,10 +5548,13 @@
         <v>45</v>
       </c>
       <c r="U59" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V59" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" si="6"/>
         <v>1959</v>
@@ -5365,10 +5627,13 @@
         <v>45</v>
       </c>
       <c r="U60" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V60" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <f t="shared" si="6"/>
         <v>1960</v>
@@ -5441,10 +5706,13 @@
         <v>45</v>
       </c>
       <c r="U61" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V61" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <f t="shared" si="6"/>
         <v>1961</v>
@@ -5517,10 +5785,13 @@
         <v>45</v>
       </c>
       <c r="U62" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V62" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <f t="shared" si="6"/>
         <v>1962</v>
@@ -5593,10 +5864,13 @@
         <v>45</v>
       </c>
       <c r="U63" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V63" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <f t="shared" si="6"/>
         <v>1963</v>
@@ -5669,10 +5943,13 @@
         <v>45</v>
       </c>
       <c r="U64" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V64" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <f t="shared" si="6"/>
         <v>1964</v>
@@ -5745,10 +6022,13 @@
         <v>45</v>
       </c>
       <c r="U65" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V65" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <f t="shared" si="6"/>
         <v>1965</v>
@@ -5821,10 +6101,13 @@
         <v>45</v>
       </c>
       <c r="U66" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V66" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <f t="shared" si="6"/>
         <v>1966</v>
@@ -5897,10 +6180,13 @@
         <v>45</v>
       </c>
       <c r="U67" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V67" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <f t="shared" ref="A68:A131" si="12">A67+1</f>
         <v>1967</v>
@@ -5973,10 +6259,13 @@
         <v>45</v>
       </c>
       <c r="U68" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V68" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <f t="shared" si="12"/>
         <v>1968</v>
@@ -6049,10 +6338,13 @@
         <v>45</v>
       </c>
       <c r="U69" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V69" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <f t="shared" si="12"/>
         <v>1969</v>
@@ -6125,10 +6417,13 @@
         <v>45</v>
       </c>
       <c r="U70" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V70" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <f t="shared" si="12"/>
         <v>1970</v>
@@ -6201,10 +6496,13 @@
         <v>45</v>
       </c>
       <c r="U71" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V71" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <f t="shared" si="12"/>
         <v>1971</v>
@@ -6277,10 +6575,13 @@
         <v>45</v>
       </c>
       <c r="U72" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V72" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <f t="shared" si="12"/>
         <v>1972</v>
@@ -6353,10 +6654,13 @@
         <v>45</v>
       </c>
       <c r="U73" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V73" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <f t="shared" si="12"/>
         <v>1973</v>
@@ -6429,10 +6733,13 @@
         <v>45</v>
       </c>
       <c r="U74" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V74" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <f t="shared" si="12"/>
         <v>1974</v>
@@ -6505,10 +6812,13 @@
         <v>45</v>
       </c>
       <c r="U75" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V75" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <f t="shared" si="12"/>
         <v>1975</v>
@@ -6581,10 +6891,13 @@
         <v>45</v>
       </c>
       <c r="U76" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V76" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <f t="shared" si="12"/>
         <v>1976</v>
@@ -6657,10 +6970,13 @@
         <v>45</v>
       </c>
       <c r="U77" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V77" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <f t="shared" si="12"/>
         <v>1977</v>
@@ -6733,10 +7049,13 @@
         <v>45</v>
       </c>
       <c r="U78" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V78" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <f t="shared" si="12"/>
         <v>1978</v>
@@ -6809,10 +7128,13 @@
         <v>45</v>
       </c>
       <c r="U79" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V79" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <f t="shared" si="12"/>
         <v>1979</v>
@@ -6885,10 +7207,13 @@
         <v>45</v>
       </c>
       <c r="U80" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V80" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <f t="shared" si="12"/>
         <v>1980</v>
@@ -6961,10 +7286,13 @@
         <v>45</v>
       </c>
       <c r="U81" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V81" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <f t="shared" si="12"/>
         <v>1981</v>
@@ -7037,10 +7365,13 @@
         <v>45</v>
       </c>
       <c r="U82" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V82" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <f t="shared" si="12"/>
         <v>1982</v>
@@ -7113,10 +7444,13 @@
         <v>45</v>
       </c>
       <c r="U83" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V83" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <f t="shared" si="12"/>
         <v>1983</v>
@@ -7189,10 +7523,13 @@
         <v>45</v>
       </c>
       <c r="U84" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V84" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <f t="shared" si="12"/>
         <v>1984</v>
@@ -7265,10 +7602,13 @@
         <v>45</v>
       </c>
       <c r="U85" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V85" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <f t="shared" si="12"/>
         <v>1985</v>
@@ -7341,10 +7681,13 @@
         <v>45</v>
       </c>
       <c r="U86" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V86" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <f t="shared" si="12"/>
         <v>1986</v>
@@ -7417,10 +7760,13 @@
         <v>45</v>
       </c>
       <c r="U87" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V87" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <f t="shared" si="12"/>
         <v>1987</v>
@@ -7493,10 +7839,13 @@
         <v>45</v>
       </c>
       <c r="U88" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V88" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <f t="shared" si="12"/>
         <v>1988</v>
@@ -7569,10 +7918,13 @@
         <v>45</v>
       </c>
       <c r="U89" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V89" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <f t="shared" si="12"/>
         <v>1989</v>
@@ -7645,10 +7997,13 @@
         <v>45</v>
       </c>
       <c r="U90" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V90" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <f t="shared" si="12"/>
         <v>1990</v>
@@ -7721,10 +8076,13 @@
         <v>45</v>
       </c>
       <c r="U91" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V91" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <f t="shared" si="12"/>
         <v>1991</v>
@@ -7797,10 +8155,13 @@
         <v>45</v>
       </c>
       <c r="U92" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V92" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <f t="shared" si="12"/>
         <v>1992</v>
@@ -7873,10 +8234,13 @@
         <v>45</v>
       </c>
       <c r="U93" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V93" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <f t="shared" si="12"/>
         <v>1993</v>
@@ -7949,10 +8313,13 @@
         <v>45</v>
       </c>
       <c r="U94" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V94" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <f t="shared" si="12"/>
         <v>1994</v>
@@ -8025,10 +8392,13 @@
         <v>45</v>
       </c>
       <c r="U95" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V95" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <f t="shared" si="12"/>
         <v>1995</v>
@@ -8101,10 +8471,13 @@
         <v>45</v>
       </c>
       <c r="U96" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V96" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <f t="shared" si="12"/>
         <v>1996</v>
@@ -8177,10 +8550,13 @@
         <v>45</v>
       </c>
       <c r="U97" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V97" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <f t="shared" si="12"/>
         <v>1997</v>
@@ -8253,10 +8629,13 @@
         <v>45</v>
       </c>
       <c r="U98" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V98" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <f t="shared" si="12"/>
         <v>1998</v>
@@ -8329,10 +8708,13 @@
         <v>45</v>
       </c>
       <c r="U99" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V99" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <f t="shared" si="12"/>
         <v>1999</v>
@@ -8405,10 +8787,13 @@
         <v>45</v>
       </c>
       <c r="U100" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V100" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <f t="shared" si="12"/>
         <v>2000</v>
@@ -8481,10 +8866,13 @@
         <v>45</v>
       </c>
       <c r="U101" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V101" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <f t="shared" si="12"/>
         <v>2001</v>
@@ -8557,10 +8945,13 @@
         <v>45</v>
       </c>
       <c r="U102" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V102" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <f t="shared" si="12"/>
         <v>2002</v>
@@ -8633,10 +9024,13 @@
         <v>45</v>
       </c>
       <c r="U103" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V103" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <f t="shared" si="12"/>
         <v>2003</v>
@@ -8709,10 +9103,13 @@
         <v>45</v>
       </c>
       <c r="U104" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V104" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <f t="shared" si="12"/>
         <v>2004</v>
@@ -8785,10 +9182,13 @@
         <v>45</v>
       </c>
       <c r="U105" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V105" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <f t="shared" si="12"/>
         <v>2005</v>
@@ -8861,10 +9261,13 @@
         <v>45</v>
       </c>
       <c r="U106" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V106" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <f t="shared" si="12"/>
         <v>2006</v>
@@ -8937,10 +9340,13 @@
         <v>45</v>
       </c>
       <c r="U107" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V107" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <f t="shared" si="12"/>
         <v>2007</v>
@@ -9013,10 +9419,13 @@
         <v>45</v>
       </c>
       <c r="U108" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V108" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <f t="shared" si="12"/>
         <v>2008</v>
@@ -9089,10 +9498,13 @@
         <v>45</v>
       </c>
       <c r="U109" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V109" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <f t="shared" si="12"/>
         <v>2009</v>
@@ -9165,10 +9577,13 @@
         <v>45</v>
       </c>
       <c r="U110" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V110" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <f t="shared" si="12"/>
         <v>2010</v>
@@ -9241,10 +9656,13 @@
         <v>45</v>
       </c>
       <c r="U111" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V111" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <f t="shared" si="12"/>
         <v>2011</v>
@@ -9317,10 +9735,13 @@
         <v>45</v>
       </c>
       <c r="U112" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V112" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <f t="shared" si="12"/>
         <v>2012</v>
@@ -9393,10 +9814,13 @@
         <v>45</v>
       </c>
       <c r="U113" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V113" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <f t="shared" si="12"/>
         <v>2013</v>
@@ -9469,10 +9893,13 @@
         <v>45</v>
       </c>
       <c r="U114" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V114" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <f t="shared" si="12"/>
         <v>2014</v>
@@ -9545,10 +9972,13 @@
         <v>45</v>
       </c>
       <c r="U115" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V115" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <f t="shared" si="12"/>
         <v>2015</v>
@@ -9621,10 +10051,13 @@
         <v>45</v>
       </c>
       <c r="U116" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V116" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <f t="shared" si="12"/>
         <v>2016</v>
@@ -9697,10 +10130,13 @@
         <v>45</v>
       </c>
       <c r="U117" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V117" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <f t="shared" si="12"/>
         <v>2017</v>
@@ -9773,10 +10209,13 @@
         <v>45</v>
       </c>
       <c r="U118" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V118" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <f t="shared" si="12"/>
         <v>2018</v>
@@ -9849,10 +10288,13 @@
         <v>45</v>
       </c>
       <c r="U119" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V119" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <f t="shared" si="12"/>
         <v>2019</v>
@@ -9925,10 +10367,13 @@
         <v>45</v>
       </c>
       <c r="U120" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V120" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <f t="shared" si="12"/>
         <v>2020</v>
@@ -10001,10 +10446,13 @@
         <v>45</v>
       </c>
       <c r="U121" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V121" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A122" s="11">
         <f t="shared" si="12"/>
         <v>2021</v>
@@ -10077,10 +10525,13 @@
         <v>45</v>
       </c>
       <c r="U122" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V122" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <f t="shared" si="12"/>
         <v>2022</v>
@@ -10153,10 +10604,13 @@
         <v>45</v>
       </c>
       <c r="U123" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V123" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <f t="shared" si="12"/>
         <v>2023</v>
@@ -10229,10 +10683,13 @@
         <v>45</v>
       </c>
       <c r="U124" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V124" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <f t="shared" si="12"/>
         <v>2024</v>
@@ -10305,10 +10762,13 @@
         <v>45</v>
       </c>
       <c r="U125" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V125" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <f t="shared" si="12"/>
         <v>2025</v>
@@ -10381,10 +10841,13 @@
         <v>45</v>
       </c>
       <c r="U126" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V126" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <f t="shared" si="12"/>
         <v>2026</v>
@@ -10457,10 +10920,13 @@
         <v>45</v>
       </c>
       <c r="U127" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V127" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <f t="shared" si="12"/>
         <v>2027</v>
@@ -10533,10 +10999,13 @@
         <v>45</v>
       </c>
       <c r="U128" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V128" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <f t="shared" si="12"/>
         <v>2028</v>
@@ -10609,10 +11078,13 @@
         <v>45</v>
       </c>
       <c r="U129" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V129" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <f t="shared" si="12"/>
         <v>2029</v>
@@ -10685,10 +11157,13 @@
         <v>45</v>
       </c>
       <c r="U130" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V130" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <f t="shared" si="12"/>
         <v>2030</v>
@@ -10761,10 +11236,13 @@
         <v>45</v>
       </c>
       <c r="U131" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V131" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <f t="shared" ref="A132:A195" si="18">A131+1</f>
         <v>2031</v>
@@ -10837,10 +11315,13 @@
         <v>45</v>
       </c>
       <c r="U132" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V132" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <f t="shared" si="18"/>
         <v>2032</v>
@@ -10913,10 +11394,13 @@
         <v>45</v>
       </c>
       <c r="U133" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V133" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <f t="shared" si="18"/>
         <v>2033</v>
@@ -10989,10 +11473,13 @@
         <v>45</v>
       </c>
       <c r="U134" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V134" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <f t="shared" si="18"/>
         <v>2034</v>
@@ -11065,10 +11552,13 @@
         <v>45</v>
       </c>
       <c r="U135" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V135" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <f t="shared" si="18"/>
         <v>2035</v>
@@ -11141,10 +11631,13 @@
         <v>45</v>
       </c>
       <c r="U136" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V136" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <f t="shared" si="18"/>
         <v>2036</v>
@@ -11217,10 +11710,13 @@
         <v>45</v>
       </c>
       <c r="U137" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V137" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <f t="shared" si="18"/>
         <v>2037</v>
@@ -11293,10 +11789,13 @@
         <v>45</v>
       </c>
       <c r="U138" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V138" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <f t="shared" si="18"/>
         <v>2038</v>
@@ -11369,10 +11868,13 @@
         <v>45</v>
       </c>
       <c r="U139" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V139" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <f t="shared" si="18"/>
         <v>2039</v>
@@ -11445,10 +11947,13 @@
         <v>45</v>
       </c>
       <c r="U140" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V140" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <f t="shared" si="18"/>
         <v>2040</v>
@@ -11521,10 +12026,13 @@
         <v>45</v>
       </c>
       <c r="U141" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V141" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <f t="shared" si="18"/>
         <v>2041</v>
@@ -11597,10 +12105,13 @@
         <v>45</v>
       </c>
       <c r="U142" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V142" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <f t="shared" si="18"/>
         <v>2042</v>
@@ -11673,10 +12184,13 @@
         <v>45</v>
       </c>
       <c r="U143" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V143" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <f t="shared" si="18"/>
         <v>2043</v>
@@ -11749,10 +12263,13 @@
         <v>45</v>
       </c>
       <c r="U144" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V144" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <f t="shared" si="18"/>
         <v>2044</v>
@@ -11825,10 +12342,13 @@
         <v>45</v>
       </c>
       <c r="U145" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V145" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <f t="shared" si="18"/>
         <v>2045</v>
@@ -11901,10 +12421,13 @@
         <v>45</v>
       </c>
       <c r="U146" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V146" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <f t="shared" si="18"/>
         <v>2046</v>
@@ -11977,10 +12500,13 @@
         <v>45</v>
       </c>
       <c r="U147" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V147" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <f t="shared" si="18"/>
         <v>2047</v>
@@ -12053,10 +12579,13 @@
         <v>45</v>
       </c>
       <c r="U148" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V148" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <f t="shared" si="18"/>
         <v>2048</v>
@@ -12129,10 +12658,13 @@
         <v>45</v>
       </c>
       <c r="U149" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V149" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <f t="shared" si="18"/>
         <v>2049</v>
@@ -12205,10 +12737,13 @@
         <v>45</v>
       </c>
       <c r="U150" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V150" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <f t="shared" si="18"/>
         <v>2050</v>
@@ -12281,10 +12816,13 @@
         <v>45</v>
       </c>
       <c r="U151" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V151" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <f t="shared" si="18"/>
         <v>2051</v>
@@ -12357,10 +12895,13 @@
         <v>45</v>
       </c>
       <c r="U152" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V152" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <f t="shared" si="18"/>
         <v>2052</v>
@@ -12433,10 +12974,13 @@
         <v>45</v>
       </c>
       <c r="U153" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V153" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <f t="shared" si="18"/>
         <v>2053</v>
@@ -12509,10 +13053,13 @@
         <v>45</v>
       </c>
       <c r="U154" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V154" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <f t="shared" si="18"/>
         <v>2054</v>
@@ -12585,10 +13132,13 @@
         <v>45</v>
       </c>
       <c r="U155" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V155" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <f t="shared" si="18"/>
         <v>2055</v>
@@ -12661,10 +13211,13 @@
         <v>45</v>
       </c>
       <c r="U156" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V156" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <f t="shared" si="18"/>
         <v>2056</v>
@@ -12737,10 +13290,13 @@
         <v>45</v>
       </c>
       <c r="U157" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V157" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <f t="shared" si="18"/>
         <v>2057</v>
@@ -12813,10 +13369,13 @@
         <v>45</v>
       </c>
       <c r="U158" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V158" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <f t="shared" si="18"/>
         <v>2058</v>
@@ -12889,10 +13448,13 @@
         <v>45</v>
       </c>
       <c r="U159" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V159" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <f t="shared" si="18"/>
         <v>2059</v>
@@ -12965,10 +13527,13 @@
         <v>45</v>
       </c>
       <c r="U160" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V160" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <f t="shared" si="18"/>
         <v>2060</v>
@@ -13041,10 +13606,13 @@
         <v>45</v>
       </c>
       <c r="U161" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V161" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <f t="shared" si="18"/>
         <v>2061</v>
@@ -13117,10 +13685,13 @@
         <v>45</v>
       </c>
       <c r="U162" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V162" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <f t="shared" si="18"/>
         <v>2062</v>
@@ -13193,10 +13764,13 @@
         <v>45</v>
       </c>
       <c r="U163" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V163" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <f t="shared" si="18"/>
         <v>2063</v>
@@ -13269,10 +13843,13 @@
         <v>45</v>
       </c>
       <c r="U164" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V164" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <f t="shared" si="18"/>
         <v>2064</v>
@@ -13345,10 +13922,13 @@
         <v>45</v>
       </c>
       <c r="U165" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V165" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <f t="shared" si="18"/>
         <v>2065</v>
@@ -13421,10 +14001,13 @@
         <v>45</v>
       </c>
       <c r="U166" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V166" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <f t="shared" si="18"/>
         <v>2066</v>
@@ -13497,10 +14080,13 @@
         <v>45</v>
       </c>
       <c r="U167" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V167" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <f t="shared" si="18"/>
         <v>2067</v>
@@ -13573,10 +14159,13 @@
         <v>45</v>
       </c>
       <c r="U168" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V168" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <f t="shared" si="18"/>
         <v>2068</v>
@@ -13649,10 +14238,13 @@
         <v>45</v>
       </c>
       <c r="U169" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V169" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <f t="shared" si="18"/>
         <v>2069</v>
@@ -13725,10 +14317,13 @@
         <v>45</v>
       </c>
       <c r="U170" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V170" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <f t="shared" si="18"/>
         <v>2070</v>
@@ -13801,10 +14396,13 @@
         <v>45</v>
       </c>
       <c r="U171" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V171" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <f t="shared" si="18"/>
         <v>2071</v>
@@ -13877,10 +14475,13 @@
         <v>45</v>
       </c>
       <c r="U172" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V172" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <f t="shared" si="18"/>
         <v>2072</v>
@@ -13953,10 +14554,13 @@
         <v>45</v>
       </c>
       <c r="U173" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V173" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <f t="shared" si="18"/>
         <v>2073</v>
@@ -14029,10 +14633,13 @@
         <v>45</v>
       </c>
       <c r="U174" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V174" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <f t="shared" si="18"/>
         <v>2074</v>
@@ -14105,10 +14712,13 @@
         <v>45</v>
       </c>
       <c r="U175" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V175" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <f t="shared" si="18"/>
         <v>2075</v>
@@ -14181,10 +14791,13 @@
         <v>45</v>
       </c>
       <c r="U176" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V176" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <f t="shared" si="18"/>
         <v>2076</v>
@@ -14257,10 +14870,13 @@
         <v>45</v>
       </c>
       <c r="U177" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V177" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <f t="shared" si="18"/>
         <v>2077</v>
@@ -14333,10 +14949,13 @@
         <v>45</v>
       </c>
       <c r="U178" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V178" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <f t="shared" si="18"/>
         <v>2078</v>
@@ -14409,10 +15028,13 @@
         <v>45</v>
       </c>
       <c r="U179" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V179" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <f t="shared" si="18"/>
         <v>2079</v>
@@ -14485,10 +15107,13 @@
         <v>45</v>
       </c>
       <c r="U180" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V180" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <f t="shared" si="18"/>
         <v>2080</v>
@@ -14561,10 +15186,13 @@
         <v>45</v>
       </c>
       <c r="U181" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V181" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <f t="shared" si="18"/>
         <v>2081</v>
@@ -14637,10 +15265,13 @@
         <v>45</v>
       </c>
       <c r="U182" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V182" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <f t="shared" si="18"/>
         <v>2082</v>
@@ -14713,10 +15344,13 @@
         <v>45</v>
       </c>
       <c r="U183" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V183" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <f t="shared" si="18"/>
         <v>2083</v>
@@ -14789,10 +15423,13 @@
         <v>45</v>
       </c>
       <c r="U184" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V184" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <f t="shared" si="18"/>
         <v>2084</v>
@@ -14865,10 +15502,13 @@
         <v>45</v>
       </c>
       <c r="U185" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V185" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <f t="shared" si="18"/>
         <v>2085</v>
@@ -14941,10 +15581,13 @@
         <v>45</v>
       </c>
       <c r="U186" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V186" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <f t="shared" si="18"/>
         <v>2086</v>
@@ -15017,10 +15660,13 @@
         <v>45</v>
       </c>
       <c r="U187" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V187" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <f t="shared" si="18"/>
         <v>2087</v>
@@ -15093,10 +15739,13 @@
         <v>45</v>
       </c>
       <c r="U188" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V188" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <f t="shared" si="18"/>
         <v>2088</v>
@@ -15169,10 +15818,13 @@
         <v>45</v>
       </c>
       <c r="U189" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V189" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <f t="shared" si="18"/>
         <v>2089</v>
@@ -15245,10 +15897,13 @@
         <v>45</v>
       </c>
       <c r="U190" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V190" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <f t="shared" si="18"/>
         <v>2090</v>
@@ -15321,10 +15976,13 @@
         <v>45</v>
       </c>
       <c r="U191" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V191" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <f t="shared" si="18"/>
         <v>2091</v>
@@ -15397,10 +16055,13 @@
         <v>45</v>
       </c>
       <c r="U192" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V192" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <f t="shared" si="18"/>
         <v>2092</v>
@@ -15473,10 +16134,13 @@
         <v>45</v>
       </c>
       <c r="U193" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V193" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <f t="shared" si="18"/>
         <v>2093</v>
@@ -15549,10 +16213,13 @@
         <v>45</v>
       </c>
       <c r="U194" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V194" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <f t="shared" si="18"/>
         <v>2094</v>
@@ -15625,10 +16292,13 @@
         <v>45</v>
       </c>
       <c r="U195" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V195" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <f t="shared" ref="A196:A251" si="24">A195+1</f>
         <v>2095</v>
@@ -15701,10 +16371,13 @@
         <v>45</v>
       </c>
       <c r="U196" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V196" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <f t="shared" si="24"/>
         <v>2096</v>
@@ -15777,10 +16450,13 @@
         <v>45</v>
       </c>
       <c r="U197" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V197" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <f t="shared" si="24"/>
         <v>2097</v>
@@ -15853,10 +16529,13 @@
         <v>45</v>
       </c>
       <c r="U198" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V198" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <f t="shared" si="24"/>
         <v>2098</v>
@@ -15929,10 +16608,13 @@
         <v>45</v>
       </c>
       <c r="U199" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V199" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <f t="shared" si="24"/>
         <v>2099</v>
@@ -16005,10 +16687,13 @@
         <v>45</v>
       </c>
       <c r="U200" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V200" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <f t="shared" si="24"/>
         <v>2100</v>
@@ -16081,10 +16766,13 @@
         <v>45</v>
       </c>
       <c r="U201" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V201" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <f t="shared" si="24"/>
         <v>2101</v>
@@ -16157,10 +16845,13 @@
         <v>45</v>
       </c>
       <c r="U202" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V202" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <f t="shared" si="24"/>
         <v>2102</v>
@@ -16233,10 +16924,13 @@
         <v>45</v>
       </c>
       <c r="U203" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V203" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <f t="shared" si="24"/>
         <v>2103</v>
@@ -16309,10 +17003,13 @@
         <v>45</v>
       </c>
       <c r="U204" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V204" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <f t="shared" si="24"/>
         <v>2104</v>
@@ -16385,10 +17082,13 @@
         <v>45</v>
       </c>
       <c r="U205" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V205" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <f t="shared" si="24"/>
         <v>2105</v>
@@ -16461,10 +17161,13 @@
         <v>45</v>
       </c>
       <c r="U206" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V206" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <f t="shared" si="24"/>
         <v>2106</v>
@@ -16537,10 +17240,13 @@
         <v>45</v>
       </c>
       <c r="U207" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V207" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <f t="shared" si="24"/>
         <v>2107</v>
@@ -16613,10 +17319,13 @@
         <v>45</v>
       </c>
       <c r="U208" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V208" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <f t="shared" si="24"/>
         <v>2108</v>
@@ -16689,10 +17398,13 @@
         <v>45</v>
       </c>
       <c r="U209" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V209" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <f t="shared" si="24"/>
         <v>2109</v>
@@ -16765,10 +17477,13 @@
         <v>45</v>
       </c>
       <c r="U210" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V210" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <f t="shared" si="24"/>
         <v>2110</v>
@@ -16841,10 +17556,13 @@
         <v>45</v>
       </c>
       <c r="U211" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V211" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <f t="shared" si="24"/>
         <v>2111</v>
@@ -16917,10 +17635,13 @@
         <v>45</v>
       </c>
       <c r="U212" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V212" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <f t="shared" si="24"/>
         <v>2112</v>
@@ -16993,10 +17714,13 @@
         <v>45</v>
       </c>
       <c r="U213" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V213" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <f t="shared" si="24"/>
         <v>2113</v>
@@ -17069,10 +17793,13 @@
         <v>45</v>
       </c>
       <c r="U214" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V214" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <f t="shared" si="24"/>
         <v>2114</v>
@@ -17145,10 +17872,13 @@
         <v>45</v>
       </c>
       <c r="U215" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V215" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <f t="shared" si="24"/>
         <v>2115</v>
@@ -17221,10 +17951,13 @@
         <v>45</v>
       </c>
       <c r="U216" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V216" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <f t="shared" si="24"/>
         <v>2116</v>
@@ -17297,10 +18030,13 @@
         <v>45</v>
       </c>
       <c r="U217" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V217" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <f t="shared" si="24"/>
         <v>2117</v>
@@ -17373,10 +18109,13 @@
         <v>45</v>
       </c>
       <c r="U218" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V218" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <f t="shared" si="24"/>
         <v>2118</v>
@@ -17449,10 +18188,13 @@
         <v>45</v>
       </c>
       <c r="U219" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V219" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <f t="shared" si="24"/>
         <v>2119</v>
@@ -17525,10 +18267,13 @@
         <v>45</v>
       </c>
       <c r="U220" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V220" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <f t="shared" si="24"/>
         <v>2120</v>
@@ -17601,10 +18346,13 @@
         <v>45</v>
       </c>
       <c r="U221" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V221" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <f t="shared" si="24"/>
         <v>2121</v>
@@ -17677,10 +18425,13 @@
         <v>45</v>
       </c>
       <c r="U222" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V222" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <f t="shared" si="24"/>
         <v>2122</v>
@@ -17753,10 +18504,13 @@
         <v>45</v>
       </c>
       <c r="U223" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V223" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <f t="shared" si="24"/>
         <v>2123</v>
@@ -17829,10 +18583,13 @@
         <v>45</v>
       </c>
       <c r="U224" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V224" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <f t="shared" si="24"/>
         <v>2124</v>
@@ -17905,10 +18662,13 @@
         <v>45</v>
       </c>
       <c r="U225" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V225" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <f t="shared" si="24"/>
         <v>2125</v>
@@ -17981,10 +18741,13 @@
         <v>45</v>
       </c>
       <c r="U226" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V226" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <f t="shared" si="24"/>
         <v>2126</v>
@@ -18057,10 +18820,13 @@
         <v>45</v>
       </c>
       <c r="U227" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V227" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <f t="shared" si="24"/>
         <v>2127</v>
@@ -18133,10 +18899,13 @@
         <v>45</v>
       </c>
       <c r="U228" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V228" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <f t="shared" si="24"/>
         <v>2128</v>
@@ -18209,10 +18978,13 @@
         <v>45</v>
       </c>
       <c r="U229" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V229" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <f t="shared" si="24"/>
         <v>2129</v>
@@ -18285,10 +19057,13 @@
         <v>45</v>
       </c>
       <c r="U230" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V230" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <f t="shared" si="24"/>
         <v>2130</v>
@@ -18361,10 +19136,13 @@
         <v>45</v>
       </c>
       <c r="U231" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V231" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <f t="shared" si="24"/>
         <v>2131</v>
@@ -18437,10 +19215,13 @@
         <v>45</v>
       </c>
       <c r="U232" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V232" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <f t="shared" si="24"/>
         <v>2132</v>
@@ -18513,10 +19294,13 @@
         <v>45</v>
       </c>
       <c r="U233" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V233" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <f t="shared" si="24"/>
         <v>2133</v>
@@ -18589,10 +19373,13 @@
         <v>45</v>
       </c>
       <c r="U234" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V234" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <f t="shared" si="24"/>
         <v>2134</v>
@@ -18665,10 +19452,13 @@
         <v>45</v>
       </c>
       <c r="U235" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V235" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <f t="shared" si="24"/>
         <v>2135</v>
@@ -18741,10 +19531,13 @@
         <v>45</v>
       </c>
       <c r="U236" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V236" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <f t="shared" si="24"/>
         <v>2136</v>
@@ -18817,10 +19610,13 @@
         <v>45</v>
       </c>
       <c r="U237" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V237" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <f t="shared" si="24"/>
         <v>2137</v>
@@ -18893,10 +19689,13 @@
         <v>45</v>
       </c>
       <c r="U238" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V238" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <f t="shared" si="24"/>
         <v>2138</v>
@@ -18969,10 +19768,13 @@
         <v>45</v>
       </c>
       <c r="U239" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V239" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <f t="shared" si="24"/>
         <v>2139</v>
@@ -19045,10 +19847,13 @@
         <v>45</v>
       </c>
       <c r="U240" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V240" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <f t="shared" si="24"/>
         <v>2140</v>
@@ -19121,10 +19926,13 @@
         <v>45</v>
       </c>
       <c r="U241" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V241" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <f t="shared" si="24"/>
         <v>2141</v>
@@ -19197,10 +20005,13 @@
         <v>45</v>
       </c>
       <c r="U242" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V242" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <f t="shared" si="24"/>
         <v>2142</v>
@@ -19273,10 +20084,13 @@
         <v>45</v>
       </c>
       <c r="U243" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V243" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <f t="shared" si="24"/>
         <v>2143</v>
@@ -19349,10 +20163,13 @@
         <v>45</v>
       </c>
       <c r="U244" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V244" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <f t="shared" si="24"/>
         <v>2144</v>
@@ -19425,10 +20242,13 @@
         <v>45</v>
       </c>
       <c r="U245" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V245" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <f t="shared" si="24"/>
         <v>2145</v>
@@ -19501,10 +20321,13 @@
         <v>45</v>
       </c>
       <c r="U246" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V246" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <f t="shared" si="24"/>
         <v>2146</v>
@@ -19577,10 +20400,13 @@
         <v>45</v>
       </c>
       <c r="U247" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V247" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <f t="shared" si="24"/>
         <v>2147</v>
@@ -19653,10 +20479,13 @@
         <v>45</v>
       </c>
       <c r="U248" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V248" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <f t="shared" si="24"/>
         <v>2148</v>
@@ -19729,10 +20558,13 @@
         <v>45</v>
       </c>
       <c r="U249" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V249" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <f t="shared" si="24"/>
         <v>2149</v>
@@ -19805,10 +20637,13 @@
         <v>45</v>
       </c>
       <c r="U250" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V250" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <f t="shared" si="24"/>
         <v>2150</v>
@@ -19881,15 +20716,18 @@
         <v>45</v>
       </c>
       <c r="U251" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V251" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -43118,4 +43956,173 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037DE41D-DE52-4F5F-AA42-726B8316BF5E}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <f>SUM(B2:B3)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <f>B5*B6</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <f>B7</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <f>B9*B4</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <f>B8</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B10:B11)</f>
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <f>B13*B12</f>
+        <v>287.09999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <f>B14+B12</f>
+        <v>2267.1</v>
+      </c>
+      <c r="C15">
+        <f>1.145*(B4*C9+B11)</f>
+        <v>2267.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>